--- a/Doc/synthetic_sales_data.xlsx
+++ b/Doc/synthetic_sales_data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pavel Sukhov\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pavel Sukhov\Desktop\develop\example02\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77169680-B8FB-4CBB-9876-A703C2237357}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0468084-C1AD-490F-9883-2D1A16FCEAE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -229,18 +229,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -251,7 +246,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -259,30 +254,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -587,8 +564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E61"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="E61" sqref="A1:E61"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -599,19 +576,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1646,7 +1623,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E6"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1657,19 +1634,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1769,7 +1746,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1780,19 +1757,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
     </row>
